--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wesso/Desktop/PyE/Modelos/FARG/Prehistoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wesso/Desktop/PyE/Modelos/FARG/Modelos Modernos/M14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA3D9C-DDF5-A844-846E-9441ABEC9DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE7BD9F-D191-9945-9ACB-B060195E2DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17340" xr2:uid="{33B994C6-7396-394C-ACFB-EF889761413D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="580">
   <si>
     <t>Rk</t>
   </si>
@@ -102,39 +102,6 @@
   </si>
   <si>
     <t>Aldosivi</t>
-  </si>
-  <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
-    <t>Atlético Tucumán</t>
-  </si>
-  <si>
-    <t>Central Córdoba (SdE)</t>
-  </si>
-  <si>
-    <t>Defensa y Justicia</t>
-  </si>
-  <si>
-    <t>Estudiantes (LP)</t>
-  </si>
-  <si>
-    <t>Gimnasia y Esgrima (LP)</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Newell's Old Boys</t>
-  </si>
-  <si>
-    <t>San Martín (SJ)</t>
-  </si>
-  <si>
-    <t>Sarmiento (J)</t>
-  </si>
-  <si>
-    <t>Talleres (C)</t>
   </si>
   <si>
     <t>MPh</t>
@@ -1847,9 +1814,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2184,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3B2BDC-089A-8C43-9A74-8FED0ED99754}">
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM36" sqref="AM36"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2200,128 +2170,128 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="V1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="X1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AK1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AL1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AM1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AN1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AO1" t="s">
         <v>59</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C2">
@@ -2446,8 +2416,8 @@
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -2571,8 +2541,8 @@
       <c r="A4">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -2696,7 +2666,7 @@
       <c r="A5">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5">
@@ -2821,7 +2791,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6">
@@ -2946,7 +2916,7 @@
       <c r="A7">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7">
@@ -3071,7 +3041,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -3196,8 +3166,8 @@
       <c r="A9">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -3321,8 +3291,8 @@
       <c r="A10">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -3446,7 +3416,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11">
@@ -3571,8 +3541,8 @@
       <c r="A12">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3696,8 +3666,8 @@
       <c r="A13">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -3821,7 +3791,7 @@
       <c r="A14">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14">
@@ -3946,7 +3916,7 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15">
@@ -4071,8 +4041,8 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -4196,8 +4166,8 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -4321,7 +4291,7 @@
       <c r="A18">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18">
@@ -4446,7 +4416,7 @@
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19">
@@ -4571,8 +4541,8 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -4696,7 +4666,7 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21">
@@ -4821,7 +4791,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C22">
@@ -4946,7 +4916,7 @@
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23">
@@ -5071,7 +5041,7 @@
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24">
@@ -5196,7 +5166,7 @@
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25">
@@ -5321,8 +5291,8 @@
       <c r="A26">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -5446,8 +5416,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -5571,8 +5541,8 @@
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -5696,7 +5666,7 @@
       <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29">
@@ -5821,7 +5791,7 @@
       <c r="A30">
         <v>18</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C30">
@@ -5946,7 +5916,7 @@
       <c r="A31">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31">
@@ -6067,7 +6037,118 @@
         <v>-0.11</v>
       </c>
     </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="2"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B36:B68">
+    <sortCondition ref="B36:B68"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6084,7 +6165,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -6095,43 +6176,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -6280,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -6374,7 +6455,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6421,7 +6502,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -6515,7 +6596,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -6656,7 +6737,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -6703,7 +6784,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -6841,7 +6922,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -6852,43 +6933,43 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="O23" t="s">
         <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N23" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -7178,7 +7259,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -7225,7 +7306,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -7272,7 +7353,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -7366,7 +7447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -7507,7 +7588,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -7616,112 +7697,112 @@
   <sheetData>
     <row r="1" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AG1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AH1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AI1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD1" t="s">
         <v>108</v>
       </c>
-      <c r="BB1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>119</v>
-      </c>
       <c r="BE1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BF1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="BG1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="BH1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="CD1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="CE1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="CX1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="CY1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="CZ1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="DA1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="DC1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="EQ1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="ER1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="ES1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="FJ1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="FK1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="FL1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="FM1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="GJ1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="GK1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="GL1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="GM1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="GN1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="HG1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="HH1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:233" x14ac:dyDescent="0.2">
@@ -7729,700 +7810,700 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="P2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
+      <c r="S2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="T2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" t="s">
+      <c r="V2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" t="s">
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" t="s">
         <v>84</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s">
         <v>85</v>
       </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>96</v>
-      </c>
       <c r="AE2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
       <c r="AH2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW2" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>87</v>
-      </c>
       <c r="AX2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AY2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AZ2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="BA2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="s">
         <v>1</v>
       </c>
       <c r="BC2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="BD2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BE2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="BF2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI2" t="s">
         <v>115</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR2" t="s">
         <v>124</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BS2" t="s">
         <v>125</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BT2" t="s">
         <v>126</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BU2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX2" t="s">
         <v>127</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BY2" t="s">
         <v>128</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BZ2" t="s">
         <v>129</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="CA2" t="s">
         <v>130</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CB2" t="s">
         <v>131</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CC2" t="s">
         <v>132</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>142</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>143</v>
       </c>
       <c r="CD2" t="s">
         <v>1</v>
       </c>
       <c r="CE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>136</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>140</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CR2" t="s">
         <v>76</v>
       </c>
-      <c r="CF2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>146</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>148</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>149</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>150</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>152</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>87</v>
-      </c>
       <c r="CS2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="CT2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CU2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="CV2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="CW2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="CX2" t="s">
         <v>1</v>
       </c>
       <c r="CY2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="CZ2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="DA2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="DB2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="DC2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="DD2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="DE2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="DF2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="DG2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="DH2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="DI2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="DJ2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="DK2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="DL2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="DM2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="DN2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="DO2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="DP2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="DQ2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="DR2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="DS2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="DT2" s="1">
         <v>45717</v>
       </c>
       <c r="DU2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="DV2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="DW2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="DX2" t="s">
         <v>1</v>
       </c>
       <c r="DY2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="DZ2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="EA2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="EB2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="EC2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="ED2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="EE2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="EF2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="EG2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="EH2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="EI2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="EJ2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="EK2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="EL2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="EM2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="EN2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="EO2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="EP2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="EQ2" t="s">
         <v>1</v>
       </c>
       <c r="ER2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="ES2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="ET2" t="s">
+        <v>168</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>169</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>168</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>121</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>173</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>174</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FI2" t="s">
         <v>179</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>180</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>181</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>182</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>183</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>132</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>184</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>185</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>145</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>186</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>187</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>188</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>189</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>190</v>
       </c>
       <c r="FJ2" t="s">
         <v>1</v>
       </c>
       <c r="FK2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="FL2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="FM2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="FN2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="FO2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="FP2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="FQ2" t="s">
+        <v>171</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>172</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>185</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>186</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>121</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>187</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>188</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>189</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>190</v>
+      </c>
+      <c r="FZ2" t="s">
         <v>182</v>
       </c>
-      <c r="FR2" t="s">
-        <v>183</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>196</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>197</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>132</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>198</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>199</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>200</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>201</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>193</v>
-      </c>
       <c r="GA2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="GB2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="GC2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="GD2" s="1">
         <v>45717</v>
       </c>
       <c r="GE2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="GF2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="GG2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="GH2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="GI2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="GJ2" t="s">
         <v>1</v>
       </c>
       <c r="GK2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="GL2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="GM2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="GN2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="GO2" t="s">
+        <v>199</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>200</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>68</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>201</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>202</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>196</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>203</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>204</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>206</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>207</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>208</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>209</v>
+      </c>
+      <c r="HC2" t="s">
         <v>210</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HD2" t="s">
         <v>211</v>
       </c>
-      <c r="GQ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>79</v>
-      </c>
-      <c r="GS2" t="s">
+      <c r="HE2" t="s">
         <v>212</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HF2" t="s">
         <v>213</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>207</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>214</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>215</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>216</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>217</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>218</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>219</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>220</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>221</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>222</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>223</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>224</v>
       </c>
       <c r="HG2" t="s">
         <v>1</v>
       </c>
       <c r="HH2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="HI2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="HJ2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="HK2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="HL2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="HM2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="HN2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="HO2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="HP2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="HQ2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="HR2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="HS2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="HT2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="HU2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="HV2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="HW2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="HX2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="HY2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:233" x14ac:dyDescent="0.2">
@@ -9128,7 +9209,7 @@
     </row>
     <row r="4" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -9224,7 +9305,7 @@
         <v>2.02</v>
       </c>
       <c r="AG4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -9287,7 +9368,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="BB4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="BC4">
         <v>1</v>
@@ -9371,7 +9452,7 @@
         <v>11.6</v>
       </c>
       <c r="CD4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="CE4">
         <v>33</v>
@@ -9431,7 +9512,7 @@
         <v>1.4</v>
       </c>
       <c r="CX4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="CY4">
         <v>33</v>
@@ -9509,7 +9590,7 @@
         <v>1024</v>
       </c>
       <c r="DX4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="DY4">
         <v>33</v>
@@ -9566,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="EQ4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="ER4">
         <v>33</v>
@@ -9623,7 +9704,7 @@
         <v>9</v>
       </c>
       <c r="FJ4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="FK4">
         <v>33</v>
@@ -9701,7 +9782,7 @@
         <v>1017</v>
       </c>
       <c r="GJ4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="GK4">
         <v>33</v>
@@ -9770,7 +9851,7 @@
         <v>0.33</v>
       </c>
       <c r="HG4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="HH4">
         <v>33</v>
@@ -9829,7 +9910,7 @@
     </row>
     <row r="5" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>32</v>
@@ -9925,7 +10006,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="AG5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="AH5">
         <v>3</v>
@@ -9988,7 +10069,7 @@
         <v>25</v>
       </c>
       <c r="BB5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="BC5">
         <v>3</v>
@@ -10072,7 +10153,7 @@
         <v>17.3</v>
       </c>
       <c r="CD5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="CE5">
         <v>32</v>
@@ -10132,7 +10213,7 @@
         <v>-5.2</v>
       </c>
       <c r="CX5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="CY5">
         <v>32</v>
@@ -10210,7 +10291,7 @@
         <v>838</v>
       </c>
       <c r="DX5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="DY5">
         <v>32</v>
@@ -10267,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="EQ5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="ER5">
         <v>32</v>
@@ -10324,7 +10405,7 @@
         <v>6</v>
       </c>
       <c r="FJ5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="FK5">
         <v>32</v>
@@ -10402,7 +10483,7 @@
         <v>830</v>
       </c>
       <c r="GJ5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="GK5">
         <v>32</v>
@@ -10471,7 +10552,7 @@
         <v>-0.17</v>
       </c>
       <c r="HG5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="HH5">
         <v>32</v>
@@ -13328,7 +13409,7 @@
     </row>
     <row r="10" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>33</v>
@@ -13424,7 +13505,7 @@
         <v>2.17</v>
       </c>
       <c r="AG10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AH10">
         <v>2</v>
@@ -13487,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="BB10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="BC10">
         <v>2</v>
@@ -13571,7 +13652,7 @@
         <v>11.4</v>
       </c>
       <c r="CD10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="CE10">
         <v>33</v>
@@ -13631,7 +13712,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="CX10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="CY10">
         <v>33</v>
@@ -13709,7 +13790,7 @@
         <v>966</v>
       </c>
       <c r="DX10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="DY10">
         <v>33</v>
@@ -13766,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="ER10">
         <v>33</v>
@@ -13823,7 +13904,7 @@
         <v>4</v>
       </c>
       <c r="FJ10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="FK10">
         <v>33</v>
@@ -13901,7 +13982,7 @@
         <v>949</v>
       </c>
       <c r="GJ10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="GK10">
         <v>33</v>
@@ -13970,7 +14051,7 @@
         <v>0.2</v>
       </c>
       <c r="HG10" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="HH10">
         <v>33</v>
@@ -14029,7 +14110,7 @@
     </row>
     <row r="11" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>35</v>
@@ -14125,7 +14206,7 @@
         <v>1.57</v>
       </c>
       <c r="AG11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -14188,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="BB11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BC11">
         <v>1</v>
@@ -14272,7 +14353,7 @@
         <v>11.2</v>
       </c>
       <c r="CD11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="CE11">
         <v>35</v>
@@ -14332,7 +14413,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="CX11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="CY11">
         <v>35</v>
@@ -14410,7 +14491,7 @@
         <v>1142</v>
       </c>
       <c r="DX11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="DY11">
         <v>35</v>
@@ -14467,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="EQ11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="ER11">
         <v>35</v>
@@ -14524,7 +14605,7 @@
         <v>11</v>
       </c>
       <c r="FJ11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="FK11">
         <v>35</v>
@@ -14602,7 +14683,7 @@
         <v>1131</v>
       </c>
       <c r="GJ11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="GK11">
         <v>35</v>
@@ -14671,7 +14752,7 @@
         <v>-0.21</v>
       </c>
       <c r="HG11" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="HH11">
         <v>35</v>
@@ -15431,7 +15512,7 @@
     </row>
     <row r="13" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -15527,7 +15608,7 @@
         <v>1.88</v>
       </c>
       <c r="AG13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AH13">
         <v>2</v>
@@ -15590,7 +15671,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="BB13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="BC13">
         <v>2</v>
@@ -15674,7 +15755,7 @@
         <v>16</v>
       </c>
       <c r="CD13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="CE13">
         <v>30</v>
@@ -15734,7 +15815,7 @@
         <v>0.6</v>
       </c>
       <c r="CX13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="CY13">
         <v>30</v>
@@ -15812,7 +15893,7 @@
         <v>1029</v>
       </c>
       <c r="DX13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="DY13">
         <v>30</v>
@@ -15869,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="EQ13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="ER13">
         <v>30</v>
@@ -15926,7 +16007,7 @@
         <v>9</v>
       </c>
       <c r="FJ13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="FK13">
         <v>30</v>
@@ -16004,7 +16085,7 @@
         <v>1021</v>
       </c>
       <c r="GJ13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="GK13">
         <v>30</v>
@@ -16073,7 +16154,7 @@
         <v>0.12</v>
       </c>
       <c r="HG13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="HH13">
         <v>30</v>
@@ -16132,7 +16213,7 @@
     </row>
     <row r="14" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>36</v>
@@ -16228,7 +16309,7 @@
         <v>1.48</v>
       </c>
       <c r="AG14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AH14">
         <v>2</v>
@@ -16291,7 +16372,7 @@
         <v>33.299999999999997</v>
       </c>
       <c r="BB14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BC14">
         <v>2</v>
@@ -16375,7 +16456,7 @@
         <v>10.5</v>
       </c>
       <c r="CD14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="CE14">
         <v>36</v>
@@ -16435,7 +16516,7 @@
         <v>-8.1</v>
       </c>
       <c r="CX14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="CY14">
         <v>36</v>
@@ -16513,7 +16594,7 @@
         <v>873</v>
       </c>
       <c r="DX14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="DY14">
         <v>36</v>
@@ -16570,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="ER14">
         <v>36</v>
@@ -16627,7 +16708,7 @@
         <v>13</v>
       </c>
       <c r="FJ14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="FK14">
         <v>36</v>
@@ -16705,7 +16786,7 @@
         <v>867</v>
       </c>
       <c r="GJ14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="GK14">
         <v>36</v>
@@ -16774,7 +16855,7 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="HG14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="HH14">
         <v>36</v>
@@ -18235,7 +18316,7 @@
     </row>
     <row r="17" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>31</v>
@@ -18331,7 +18412,7 @@
         <v>1.64</v>
       </c>
       <c r="AG17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AH17">
         <v>1</v>
@@ -18394,7 +18475,7 @@
         <v>20</v>
       </c>
       <c r="BB17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="BC17">
         <v>1</v>
@@ -18478,7 +18559,7 @@
         <v>13</v>
       </c>
       <c r="CD17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="CE17">
         <v>31</v>
@@ -18538,7 +18619,7 @@
         <v>1.5</v>
       </c>
       <c r="CX17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="CY17">
         <v>31</v>
@@ -18616,7 +18697,7 @@
         <v>776</v>
       </c>
       <c r="DX17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="DY17">
         <v>31</v>
@@ -18673,7 +18754,7 @@
         <v>0</v>
       </c>
       <c r="EQ17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="ER17">
         <v>31</v>
@@ -18730,7 +18811,7 @@
         <v>9</v>
       </c>
       <c r="FJ17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="FK17">
         <v>31</v>
@@ -18808,7 +18889,7 @@
         <v>765</v>
       </c>
       <c r="GJ17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="GK17">
         <v>31</v>
@@ -18877,7 +18958,7 @@
         <v>-0.31</v>
       </c>
       <c r="HG17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="HH17">
         <v>31</v>
@@ -21039,7 +21120,7 @@
     </row>
     <row r="21" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>43</v>
@@ -21135,7 +21216,7 @@
         <v>1.72</v>
       </c>
       <c r="AG21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AH21">
         <v>4</v>
@@ -21198,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="BB21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="BC21">
         <v>4</v>
@@ -21282,7 +21363,7 @@
         <v>9.6</v>
       </c>
       <c r="CD21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="CE21">
         <v>43</v>
@@ -21342,7 +21423,7 @@
         <v>-3</v>
       </c>
       <c r="CX21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="CY21">
         <v>43</v>
@@ -21420,7 +21501,7 @@
         <v>803</v>
       </c>
       <c r="DX21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="DY21">
         <v>43</v>
@@ -21477,7 +21558,7 @@
         <v>2</v>
       </c>
       <c r="EQ21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="ER21">
         <v>43</v>
@@ -21534,7 +21615,7 @@
         <v>8</v>
       </c>
       <c r="FJ21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="FK21">
         <v>43</v>
@@ -21612,7 +21693,7 @@
         <v>792</v>
       </c>
       <c r="GJ21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="GK21">
         <v>43</v>
@@ -21681,7 +21762,7 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="HG21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="HH21">
         <v>43</v>
@@ -25242,7 +25323,7 @@
     </row>
     <row r="27" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>34</v>
@@ -25338,7 +25419,7 @@
         <v>1.37</v>
       </c>
       <c r="AG27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AH27">
         <v>1</v>
@@ -25401,7 +25482,7 @@
         <v>0</v>
       </c>
       <c r="BB27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="BC27">
         <v>1</v>
@@ -25485,7 +25566,7 @@
         <v>12.5</v>
       </c>
       <c r="CD27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="CE27">
         <v>34</v>
@@ -25545,7 +25626,7 @@
         <v>-10.8</v>
       </c>
       <c r="CX27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="CY27">
         <v>34</v>
@@ -25623,7 +25704,7 @@
         <v>667</v>
       </c>
       <c r="DX27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="DY27">
         <v>34</v>
@@ -25680,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="EQ27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="ER27">
         <v>34</v>
@@ -25737,7 +25818,7 @@
         <v>5</v>
       </c>
       <c r="FJ27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="FK27">
         <v>34</v>
@@ -25815,7 +25896,7 @@
         <v>659</v>
       </c>
       <c r="GJ27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="GK27">
         <v>34</v>
@@ -25884,7 +25965,7 @@
         <v>-0.31</v>
       </c>
       <c r="HG27" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="HH27">
         <v>34</v>
@@ -25943,7 +26024,7 @@
     </row>
     <row r="28" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>33</v>
@@ -26039,7 +26120,7 @@
         <v>1.48</v>
       </c>
       <c r="AG28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="AH28">
         <v>1</v>
@@ -26102,7 +26183,7 @@
         <v>0</v>
       </c>
       <c r="BB28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="BC28">
         <v>1</v>
@@ -26186,7 +26267,7 @@
         <v>14.5</v>
       </c>
       <c r="CD28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="CE28">
         <v>33</v>
@@ -26246,7 +26327,7 @@
         <v>-5.6</v>
       </c>
       <c r="CX28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="CY28">
         <v>33</v>
@@ -26324,7 +26405,7 @@
         <v>691</v>
       </c>
       <c r="DX28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="DY28">
         <v>33</v>
@@ -26381,7 +26462,7 @@
         <v>1</v>
       </c>
       <c r="EQ28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="ER28">
         <v>33</v>
@@ -26438,7 +26519,7 @@
         <v>3</v>
       </c>
       <c r="FJ28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="FK28">
         <v>33</v>
@@ -26516,7 +26597,7 @@
         <v>681</v>
       </c>
       <c r="GJ28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="GK28">
         <v>33</v>
@@ -26585,7 +26666,7 @@
         <v>-0.32</v>
       </c>
       <c r="HG28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="HH28">
         <v>33</v>
@@ -26644,7 +26725,7 @@
     </row>
     <row r="29" spans="1:233" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B29">
         <v>33</v>
@@ -26740,7 +26821,7 @@
         <v>1.99</v>
       </c>
       <c r="AG29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AH29">
         <v>2</v>
@@ -26803,7 +26884,7 @@
         <v>0</v>
       </c>
       <c r="BB29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="BC29">
         <v>2</v>
@@ -26887,7 +26968,7 @@
         <v>15.7</v>
       </c>
       <c r="CD29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="CE29">
         <v>33</v>
@@ -26947,7 +27028,7 @@
         <v>-13.4</v>
       </c>
       <c r="CX29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="CY29">
         <v>33</v>
@@ -27025,7 +27106,7 @@
         <v>972</v>
       </c>
       <c r="DX29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="DY29">
         <v>33</v>
@@ -27082,7 +27163,7 @@
         <v>1</v>
       </c>
       <c r="EQ29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="ER29">
         <v>33</v>
@@ -27139,7 +27220,7 @@
         <v>8</v>
       </c>
       <c r="FJ29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="FK29">
         <v>33</v>
@@ -27217,7 +27298,7 @@
         <v>958</v>
       </c>
       <c r="GJ29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="GK29">
         <v>33</v>
@@ -27286,7 +27367,7 @@
         <v>0.27</v>
       </c>
       <c r="HG29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="HH29">
         <v>33</v>
@@ -29460,2892 +29541,2892 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
